--- a/docs/Keras-GoogleNet-ResNet/doc/summary_results.xlsx
+++ b/docs/Keras-GoogleNet-ResNet/doc/summary_results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DeepLearning\KERAS-CUSTOM-CNN\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DeepLearning\TechDocs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>CNN</t>
   </si>
@@ -47,6 +47,12 @@
     <t>ACCURACY</t>
   </si>
   <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>BGR to RGB</t>
+  </si>
+  <si>
     <t>(sec)</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>Run-time</t>
   </si>
   <si>
+    <t>(fps)</t>
+  </si>
+  <si>
     <t>LeNet</t>
   </si>
   <si>
@@ -93,9 +102,6 @@
   </si>
   <si>
     <t>Dell Precision 5820 Tower Desktop with NVIDIA Quadro P6000 GPU 24 GB memory</t>
-  </si>
-  <si>
-    <t>FPS</t>
   </si>
 </sst>
 </file>
@@ -105,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,19 +139,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,18 +189,6 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -337,28 +320,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -405,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,9 +462,6 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,39 +487,31 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,9 +586,6 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFFFCCFF"/>
-    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -886,29 +861,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875"/>
-    <col min="2" max="2" width="11.6640625" style="1"/>
-    <col min="3" max="3" width="12.21875" style="1"/>
-    <col min="4" max="4" width="9.44140625" style="1"/>
-    <col min="5" max="5" width="13.88671875" style="1"/>
-    <col min="6" max="6" width="19.33203125" style="1"/>
-    <col min="7" max="7" width="9.44140625" style="1"/>
-    <col min="8" max="8" width="12" style="1"/>
-    <col min="9" max="9" width="14.77734375" style="1"/>
-    <col min="10" max="10" width="10.21875" style="1"/>
-    <col min="11" max="11" width="9.77734375" style="41" customWidth="1"/>
-    <col min="12" max="1025" width="11.44140625"/>
+    <col min="1" max="1" width="12.44140625"/>
+    <col min="2" max="2" width="12.6640625" style="1"/>
+    <col min="3" max="3" width="10.5546875" style="1"/>
+    <col min="4" max="4" width="8.109375" style="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1"/>
+    <col min="7" max="7" width="8.109375" style="1"/>
+    <col min="8" max="8" width="13.109375" style="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" style="1"/>
+    <col min="13" max="1025" width="10.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -932,341 +908,370 @@
       <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="41"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23">
+        <v>390</v>
+      </c>
+      <c r="C4" s="24">
+        <v>6409510</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0.93</v>
+      </c>
+      <c r="K4" s="42">
+        <v>1544</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="23">
+        <v>704</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2170986</v>
+      </c>
+      <c r="D5" s="25">
+        <v>25</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="42">
+        <v>3623</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3226</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1656250</v>
+      </c>
+      <c r="D6" s="25">
+        <v>70</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.92</v>
+      </c>
+      <c r="K6" s="42">
+        <v>2512</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="23">
+        <v>7791</v>
+      </c>
+      <c r="C7" s="24">
+        <v>886102</v>
+      </c>
+      <c r="D7" s="25">
+        <v>100</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:1024" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="21">
-        <v>405</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="G7" s="28">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0.9496</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="42">
+        <v>926</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="43"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23">
+        <v>328</v>
+      </c>
+      <c r="C9" s="24">
         <v>6409510</v>
       </c>
-      <c r="D4" s="23">
-        <v>5</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0.9194</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0.92459999999999998</v>
-      </c>
-      <c r="J4" s="27">
+      <c r="D9" s="25">
+        <v>20</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0.66</v>
+      </c>
+      <c r="K9" s="42">
+        <v>1537</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9">
+        <v>0.41820000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="23">
+        <v>596</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2170986</v>
+      </c>
+      <c r="D10" s="25">
+        <v>40</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.8458</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0.84</v>
+      </c>
+      <c r="K10" s="42">
+        <v>3589</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10">
+        <v>0.6976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2694</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1656250</v>
+      </c>
+      <c r="D11" s="25">
+        <v>70</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.873</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="42">
+        <v>2508</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11">
+        <v>0.68879999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="32">
+        <v>6578</v>
+      </c>
+      <c r="C12" s="33">
+        <v>886102</v>
+      </c>
+      <c r="D12" s="34">
+        <v>100</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="J12" s="47">
         <v>0.93</v>
       </c>
-      <c r="K4" s="46">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="21">
-        <v>707</v>
-      </c>
-      <c r="C5" s="22">
-        <v>2170986</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="H5" s="26">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0.9456</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="K5" s="47">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="21">
-        <v>3275</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1656250</v>
-      </c>
-      <c r="D6" s="23">
-        <v>70</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0.9254</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0.93</v>
-      </c>
-      <c r="K6" s="47">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="21">
-        <v>7866</v>
-      </c>
-      <c r="C7" s="22">
-        <v>886102</v>
-      </c>
-      <c r="D7" s="23">
-        <v>100</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0.94620000000000004</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0.94779999999999998</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="47">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="21">
-        <v>406</v>
-      </c>
-      <c r="C9" s="22">
-        <v>6409510</v>
-      </c>
-      <c r="D9" s="23">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0.91</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0.91739999999999999</v>
-      </c>
-      <c r="J9" s="27">
-        <v>0.91</v>
-      </c>
-      <c r="K9" s="47">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="21">
-        <v>701</v>
-      </c>
-      <c r="C10" s="22">
-        <v>2170986</v>
-      </c>
-      <c r="D10" s="23">
-        <v>25</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H10" s="26">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0.94340000000000002</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0.94</v>
-      </c>
-      <c r="K10" s="47">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="21">
-        <v>3248</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1656250</v>
-      </c>
-      <c r="D11" s="23">
-        <v>70</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="H11" s="26">
-        <v>0.9244</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0.92</v>
-      </c>
-      <c r="K11" s="47">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="31">
-        <v>7877</v>
-      </c>
-      <c r="C12" s="32">
-        <v>886102</v>
-      </c>
-      <c r="D12" s="33">
-        <v>100</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="J12" s="37">
-        <v>0.94</v>
-      </c>
-      <c r="K12" s="48">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="K12" s="44">
+        <v>928</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12">
+        <v>0.83819999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1276,25 +1281,31 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-    </row>
-    <row r="15" spans="1:1024" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="42"/>
-      <c r="AMJ15"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="22" spans="7:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="7:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.91388888888888897" bottom="0.91388888888888897" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>